--- a/participants/participant_02/participant_02_conditions.xlsx
+++ b/participants/participant_02/participant_02_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16498730098685317" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-1649873009885351" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16498730098863513" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16498730099007447" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_4-16498730099266906" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_4-16498730100270033" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_6-1649873010177769" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16498730103122606" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16498730107120342" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16498730109203644" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16498730109658856" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-1649873011472359" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-1649873011531769" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16498730115565116" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16498730115695364" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16498730115715206" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16498730116011577" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16498730116021564" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16498730116170504" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16498730116210146" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16498730116330156" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16498730116482992" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16498730116643248" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-1650291116307487" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16502911163283188" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-1650291116329327" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16502911163433118" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_8-16502911164671624" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_5-16502911164968307" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_0-16502911167077854" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16502911167638822" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16502911169699943" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16502911170757525" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16502911171515625" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16502911180517466" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-1650291118727186" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16502911187423563" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16502911187553182" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16502911187553182" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16502911187718277" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16502911187728293" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16502911187872167" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16502911187920463" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-1650291118818341" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16502911188346283" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-1650291118850211" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1005,11 +1005,11 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1146,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1489,11 +1489,11 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1682,14 +1682,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1797,11 +1797,11 @@
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1842,14 +1842,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2070,14 +2070,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2214,14 +2214,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2246,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2310,14 +2310,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16498625046195066.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16497934944917982.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2867,15 +2867,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16497934923084028.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16498625046195066.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\NS_TO-1649871875179094.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3252,11 +3252,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3273,11 +3273,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3294,11 +3294,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3340,15 +3340,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3361,15 +3361,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_12.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3382,15 +3382,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_22.jpg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,11 +3420,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_19.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3462,11 +3462,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_13.jpeg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3504,11 +3504,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,19 +3525,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_9.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3588,11 +3588,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_15.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3705,7 +3705,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
         <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -3877,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3902,10 +3902,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3927,10 +3927,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -3980,7 +3980,7 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
         <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
         <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
         <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -4581,7 +4581,7 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
         <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4778,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -4878,10 +4878,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5056,7 +5056,7 @@
         <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -5329,13 +5329,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
         <v>-0.25</v>
@@ -5354,23 +5354,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.25</v>
       </c>
-      <c r="E4" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5379,16 +5379,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5404,23 +5404,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5429,23 +5429,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.25</v>
       </c>
-      <c r="E7" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5485,17 +5485,17 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5504,10 +5504,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -5516,11 +5516,11 @@
         <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5535,10 +5535,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -5554,16 +5554,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -5579,16 +5579,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>-0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
@@ -5616,11 +5616,11 @@
         <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5629,23 +5629,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5654,23 +5654,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5685,10 +5685,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
@@ -5738,7 +5738,7 @@
         <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -5754,23 +5754,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5791,11 +5791,11 @@
         <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5804,23 +5804,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5835,17 +5835,17 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5854,16 +5854,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5879,23 +5879,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
         <v>0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5904,7 +5904,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
@@ -5929,16 +5929,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -5954,10 +5954,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0.25</v>
@@ -5982,13 +5982,13 @@
         <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6004,23 +6004,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6032,20 +6032,20 @@
         <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E31" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6105,23 +6105,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6133,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
@@ -6180,10 +6180,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>-0.25</v>
@@ -6192,11 +6192,11 @@
         <v>-0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6205,23 +6205,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6258,20 +6258,20 @@
         <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6283,20 +6283,20 @@
         <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6305,23 +6305,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
         <v>-0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6355,10 +6355,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>-0.25</v>
@@ -6367,11 +6367,11 @@
         <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6383,20 +6383,20 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>-0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6408,20 +6408,20 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E14" t="n">
         <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6433,20 +6433,20 @@
         <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6458,20 +6458,20 @@
         <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
         <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6480,16 +6480,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -6505,10 +6505,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0.25</v>
@@ -6517,11 +6517,11 @@
         <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6530,23 +6530,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6555,10 +6555,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -6567,11 +6567,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6583,10 +6583,10 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E21" t="n">
         <v>0.25</v>
@@ -6605,16 +6605,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -6636,17 +6636,17 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
         <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0.25</v>
@@ -6667,11 +6667,11 @@
         <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
         <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>-0.25</v>
@@ -6705,16 +6705,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -6730,7 +6730,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -6758,13 +6758,13 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -6780,23 +6780,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6805,10 +6805,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>-0.25</v>
@@ -6817,11 +6817,11 @@
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6842,11 +6842,11 @@
         <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,19 +7357,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_27.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7441,19 +7441,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_14.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_9.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_14.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_1.jpg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7588,19 +7588,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_1.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7655,15 +7655,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_20.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_6.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7756,19 +7756,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_28.jpg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7856,17 +7856,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7878,7 +7878,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7894,17 +7894,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7932,10 +7932,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7989,10 +7989,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8065,17 +8065,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8141,10 +8141,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8413,14 +8413,14 @@
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8429,10 +8429,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8508,14 +8508,14 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8524,17 +8524,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8546,7 +8546,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8660,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8679,10 +8679,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -8698,17 +8698,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8793,10 +8793,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8850,17 +8850,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8907,17 +8907,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8926,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8986,14 +8986,14 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -9143,11 +9143,11 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9255,11 +9255,11 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9367,11 +9367,11 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9496,14 +9496,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9544,7 +9544,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -9576,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>

--- a/participants/participant_02/participant_02_conditions.xlsx
+++ b/participants/participant_02/participant_02_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-1650291116307487" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16502911163283188" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-1650291116329327" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16502911163433118" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_8-16502911164671624" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_5-16502911164968307" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_0-16502911167077854" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16502911167638822" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16502911169699943" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16502911170757525" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16502911171515625" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16502911180517466" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-1650291118727186" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16502911187423563" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16502911187553182" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16502911187553182" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16502911187718277" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16502911187728293" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16502911187872167" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16502911187920463" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-1650291118818341" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16502911188346283" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-1650291118850211" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16504777734483786" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16504777734633775" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16504777734653876" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16504777734963791" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_3-1650477773629375" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_7-165047777407838" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_7-16504777741903777" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16504777743413944" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16504777745364" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16504777751003838" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-1650477775162422" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16504777752233841" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16504777757673814" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16504777757923777" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16504777758174133" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16504777758183753" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16504777758484123" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16504777758503773" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16504777758633842" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16504777758703861" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16504777758963819" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16504777759123855" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16504777759433832" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -986,14 +986,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1489,11 +1489,11 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1941,11 +1941,11 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1957,11 +1957,11 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2041,11 +2041,11 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2070,14 +2070,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,14 +2214,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2313,11 +2313,11 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3252,11 +3252,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3273,19 +3273,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,11 +3336,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3357,11 +3357,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3378,11 +3378,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_14.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,11 +3462,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3508,15 +3508,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3525,19 +3525,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,11 +3567,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3588,19 +3588,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3609,19 +3609,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3630,19 +3630,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3805,7 +3805,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -3877,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3902,10 +3902,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4052,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -4102,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -4177,7 +4177,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4189,11 +4189,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4214,11 +4214,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4252,10 +4252,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
         <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4352,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -4389,11 +4389,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
         <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
         <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4578,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
         <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4778,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
         <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5028,10 +5028,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5053,10 +5053,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -5128,7 +5128,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -5153,10 +5153,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -5203,7 +5203,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5240,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5304,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5316,11 +5316,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5329,13 +5329,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="n">
         <v>-0.25</v>
@@ -5354,13 +5354,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
         <v>0.25</v>
@@ -5379,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -5388,14 +5388,14 @@
         <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5410,10 +5410,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5429,16 +5429,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -5457,13 +5457,13 @@
         <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>-0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5482,13 +5482,13 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5504,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -5513,14 +5513,14 @@
         <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5535,10 +5535,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -5554,23 +5554,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>-0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5582,10 +5582,10 @@
         <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
         <v>0.25</v>
@@ -5610,17 +5610,17 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E14" t="n">
         <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5629,16 +5629,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5654,23 +5654,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
         <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5679,10 +5679,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -5704,16 +5704,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -5729,16 +5729,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -5757,7 +5757,7 @@
         <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -5782,13 +5782,13 @@
         <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5804,16 +5804,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -5832,13 +5832,13 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>-0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -5857,10 +5857,10 @@
         <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
         <v>-0.25</v>
@@ -5879,23 +5879,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5904,10 +5904,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
@@ -5916,11 +5916,11 @@
         <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5932,20 +5932,20 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5954,16 +5954,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -5979,13 +5979,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E29" t="n">
         <v>-0.25</v>
@@ -6004,10 +6004,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -6016,11 +6016,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -6038,7 +6038,7 @@
         <v>0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6108,20 +6108,20 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6136,10 +6136,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -6155,23 +6155,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6180,23 +6180,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6205,23 +6205,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6239,14 +6239,14 @@
         <v>0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6255,13 +6255,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
@@ -6283,13 +6283,13 @@
         <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -6305,23 +6305,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
         <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6330,16 +6330,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -6355,7 +6355,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -6364,7 +6364,7 @@
         <v>-0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -6389,7 +6389,7 @@
         <v>-0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>-0.25</v>
@@ -6417,11 +6417,11 @@
         <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
         <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -6442,11 +6442,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6455,16 +6455,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6480,23 +6480,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
         <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6505,16 +6505,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6567,11 +6567,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -6592,11 +6592,11 @@
         <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6605,23 +6605,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6633,13 +6633,13 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>-0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6655,16 +6655,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6680,23 +6680,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6705,23 +6705,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
         <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6730,23 +6730,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6758,20 +6758,20 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E28" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6780,10 +6780,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -6808,20 +6808,20 @@
         <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E30" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6830,16 +6830,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7441,19 +7441,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,19 +7483,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,19 +7525,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7546,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7592,15 +7592,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7672,19 +7672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7693,19 +7693,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7878,7 +7878,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7894,17 +7894,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -7989,10 +7989,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8027,17 +8027,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8046,17 +8046,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8065,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -8103,17 +8103,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8141,10 +8141,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8179,17 +8179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
         <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8258,17 +8258,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8296,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8448,17 +8448,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8524,17 +8524,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,10 +8562,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8660,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8717,17 +8717,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8755,17 +8755,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8774,17 +8774,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8796,14 +8796,14 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8910,14 +8910,14 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8929,14 +8929,14 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
         <v>7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9124,14 +9124,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9143,11 +9143,11 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9172,14 +9172,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9220,14 +9220,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9255,11 +9255,11 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9483,11 +9483,11 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9659,11 +9659,11 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>

--- a/participants/participant_02/participant_02_conditions.xlsx
+++ b/participants/participant_02/participant_02_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16504777734483786" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16504777734633775" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16504777734653876" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16504777734963791" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_3-1650477773629375" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_7-165047777407838" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_7-16504777741903777" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16504777743413944" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16504777745364" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16504777751003838" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-1650477775162422" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16504777752233841" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16504777757673814" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16504777757923777" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16504777758174133" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16504777758183753" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16504777758484123" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16504777758503773" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16504777758633842" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16504777758703861" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16504777758963819" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16504777759123855" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16504777759433832" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16509960638907716" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16509960639068065" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16509960639068065" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16509960639308066" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_0-16509960639707708" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_2-16509960640747747" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_2-16509960645378082" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16509960645858035" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16509960647378442" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16509960649778028" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16509960651778123" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-1650996065441847" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16509960656178312" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16509960656418076" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16509960656658404" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16509960656658404" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16509960656818087" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16509960656818087" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16509960656978061" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16509960656978061" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16509960657138112" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16509960657298076" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16509960657458048" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>go_stim</t>
+          <t>GNG_stim</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -986,14 +986,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1486,14 +1486,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1537,11 +1537,11 @@
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1685,11 +1685,11 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1746,14 +1746,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1954,14 +1954,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2310,14 +2310,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2561,15 +2561,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3273,11 +3273,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3319,15 +3319,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_14.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3420,11 +3420,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,11 +3504,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_5.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3550,15 +3550,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3571,15 +3571,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3588,11 +3588,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,19 +3609,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3777,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -3905,7 +3905,7 @@
         <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
         <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
         <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -4302,7 +4302,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4506,7 +4506,7 @@
         <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4703,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
         <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4903,10 +4903,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5028,10 +5028,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5053,10 +5053,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5103,10 +5103,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5316,11 +5316,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5329,16 +5329,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5354,23 +5354,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="n">
         <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5382,7 +5382,7 @@
         <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.25</v>
@@ -5407,7 +5407,7 @@
         <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -5429,10 +5429,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>-0.25</v>
@@ -5466,11 +5466,11 @@
         <v>-0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -5507,7 +5507,7 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -5529,23 +5529,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.25</v>
       </c>
-      <c r="E11" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5560,17 +5560,17 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5579,10 +5579,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
@@ -5604,23 +5604,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
         <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5629,7 +5629,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
@@ -5641,11 +5641,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5654,23 +5654,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
         <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5682,20 +5682,20 @@
         <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5704,23 +5704,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
         <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5732,13 +5732,13 @@
         <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -5754,23 +5754,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5779,16 +5779,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5804,7 +5804,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -5813,14 +5813,14 @@
         <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5829,10 +5829,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>-0.25</v>
@@ -5841,11 +5841,11 @@
         <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
         <v>0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5879,16 +5879,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5904,23 +5904,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0.25</v>
@@ -5941,11 +5941,11 @@
         <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5957,20 +5957,20 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5979,16 +5979,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6004,23 +6004,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6029,16 +6029,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6105,16 +6105,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -6130,16 +6130,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -6155,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -6186,17 +6186,17 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6205,13 +6205,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
         <v>0.25</v>
@@ -6230,13 +6230,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="n">
         <v>-0.25</v>
@@ -6255,16 +6255,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>-0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -6280,7 +6280,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -6289,14 +6289,14 @@
         <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6308,13 +6308,13 @@
         <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6330,13 +6330,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="n">
         <v>0.25</v>
@@ -6355,23 +6355,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E12" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6380,7 +6380,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -6392,11 +6392,11 @@
         <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6408,7 +6408,7 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>-0.25</v>
@@ -6417,11 +6417,11 @@
         <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6430,10 +6430,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -6442,11 +6442,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6455,16 +6455,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6480,16 +6480,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6508,20 +6508,20 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6533,20 +6533,20 @@
         <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
         <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -6567,11 +6567,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6580,13 +6580,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
         <v>0.25</v>
@@ -6605,23 +6605,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6630,13 +6630,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0.25</v>
@@ -6661,10 +6661,10 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6680,16 +6680,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -6708,13 +6708,13 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6730,23 +6730,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6755,23 +6755,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6780,23 +6780,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6805,10 +6805,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0.25</v>
@@ -6817,11 +6817,11 @@
         <v>-0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6830,23 +6830,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>go_stim</t>
+          <t>GNG_stim</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,7 +7232,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,19 +7357,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7420,11 +7420,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,19 +7525,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7546,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7567,11 +7567,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7592,15 +7592,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,11 +7630,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7672,19 +7672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,11 +7714,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7739,15 +7739,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,17 +7875,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7951,17 +7951,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -7989,10 +7989,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8027,17 +8027,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8065,17 +8065,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8179,17 +8179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8296,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8394,14 +8394,14 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8410,10 +8410,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8470,14 +8470,14 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8486,17 +8486,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8524,17 +8524,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8682,14 +8682,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8698,17 +8698,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8717,17 +8717,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8831,10 +8831,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8907,17 +8907,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8926,17 +8926,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9124,14 +9124,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9367,11 +9367,11 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9483,11 +9483,11 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9496,14 +9496,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9547,11 +9547,11 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9659,11 +9659,11 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>

--- a/participants/participant_02/participant_02_conditions.xlsx
+++ b/participants/participant_02/participant_02_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16509960638907716" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16509960639068065" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16509960639068065" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16509960639308066" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_0-16509960639707708" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_2-16509960640747747" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_2-16509960645378082" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16509960645858035" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16509960647378442" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16509960649778028" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16509960651778123" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-1650996065441847" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16509960656178312" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16509960656418076" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16509960656658404" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16509960656658404" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16509960656818087" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16509960656818087" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16509960656978061" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16509960656978061" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16509960657138112" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16509960657298076" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16509960657458048" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16511686477375429" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16511686477535434" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16511686477545457" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16511686477685437" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_2-16511686477935436" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_0-16511686478855445" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_5-16511686481607547" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16511686485897553" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-1651168649015754" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16511686492647562" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16511686494227543" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16511686494937856" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16511686501657517" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16511686501897526" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-1651168650202785" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-1651168650202785" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16511686502187657" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16511686502197542" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16511686502347858" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16511686502377517" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16511686502507863" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16511686502664113" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16511686502824118" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -633,7 +633,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -801,7 +801,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1197,11 +1197,11 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1329,11 +1329,11 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1486,14 +1486,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1518,14 +1518,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1698,14 +1698,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1746,14 +1746,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1842,14 +1842,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1922,14 +1922,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2233,11 +2233,11 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2246,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2310,14 +2310,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2867,15 +2867,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3231,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3277,15 +3277,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3508,15 +3508,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3588,19 +3588,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3609,19 +3609,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3630,19 +3630,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3777,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
         <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -3877,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3902,10 +3902,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -3980,7 +3980,7 @@
         <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -4052,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -4077,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4189,11 +4189,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
         <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4578,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
         <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4828,10 +4828,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -4915,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5078,10 +5078,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
         <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -5165,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5240,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5304,16 +5304,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -5329,23 +5329,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5357,20 +5357,20 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5379,10 +5379,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0.25</v>
@@ -5391,11 +5391,11 @@
         <v>-0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5404,13 +5404,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
         <v>0.25</v>
@@ -5429,10 +5429,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>-0.25</v>
@@ -5454,7 +5454,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -5463,7 +5463,7 @@
         <v>-0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -5482,20 +5482,20 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -5513,14 +5513,14 @@
         <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5532,20 +5532,20 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E11" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5554,13 +5554,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="n">
         <v>0.25</v>
@@ -5579,16 +5579,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5604,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -5613,7 +5613,7 @@
         <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -5629,23 +5629,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5657,13 +5657,13 @@
         <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5685,10 +5685,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -5704,13 +5704,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E18" t="n">
         <v>-0.25</v>
@@ -5729,16 +5729,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -5754,16 +5754,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E20" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.25</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -5779,16 +5779,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5807,13 +5807,13 @@
         <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -5829,23 +5829,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E23" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5854,16 +5854,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5879,13 +5879,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
         <v>0.25</v>
@@ -5904,23 +5904,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5932,13 +5932,13 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -5957,13 +5957,13 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -5979,7 +5979,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -5988,7 +5988,7 @@
         <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6004,16 +6004,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -6029,23 +6029,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6105,13 +6105,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
         <v>-0.25</v>
@@ -6130,16 +6130,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -6155,10 +6155,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
@@ -6180,16 +6180,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6208,20 +6208,20 @@
         <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6230,10 +6230,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>-0.25</v>
@@ -6258,7 +6258,7 @@
         <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>-0.25</v>
@@ -6267,11 +6267,11 @@
         <v>-0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6283,13 +6283,13 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -6305,7 +6305,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -6330,10 +6330,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>-0.25</v>
@@ -6355,23 +6355,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6383,13 +6383,13 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -6405,7 +6405,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -6414,14 +6414,14 @@
         <v>-0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6430,10 +6430,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -6442,11 +6442,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6455,10 +6455,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>-0.25</v>
@@ -6486,17 +6486,17 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6508,20 +6508,20 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E18" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6530,23 +6530,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
         <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6580,10 +6580,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0.25</v>
@@ -6592,11 +6592,11 @@
         <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6608,13 +6608,13 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -6630,13 +6630,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0.25</v>
@@ -6655,13 +6655,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
@@ -6680,7 +6680,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -6692,11 +6692,11 @@
         <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6711,17 +6711,17 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6730,13 +6730,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
         <v>-0.25</v>
@@ -6755,23 +6755,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6780,16 +6780,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6808,20 +6808,20 @@
         <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6830,23 +6830,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_14.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7504,19 +7504,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,11 +7546,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7571,15 +7571,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7588,11 +7588,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,11 +7672,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7693,19 +7693,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,17 +7818,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -7856,17 +7856,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7875,17 +7875,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7989,10 +7989,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8030,7 +8030,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8046,17 +8046,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8065,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8122,17 +8122,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8296,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8413,14 +8413,14 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8429,10 +8429,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8448,17 +8448,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8486,17 +8486,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8524,17 +8524,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8581,10 +8581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -8755,17 +8755,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8793,10 +8793,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
         <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8850,17 +8850,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8907,17 +8907,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8926,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8986,14 +8986,14 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9124,14 +9124,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9220,14 +9220,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9236,14 +9236,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9464,14 +9464,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9499,11 +9499,11 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9579,11 +9579,11 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9611,11 +9611,11 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9624,14 +9624,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>

--- a/participants/participant_02/participant_02_conditions.xlsx
+++ b/participants/participant_02/participant_02_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16511686477375429" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16511686477535434" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16511686477545457" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16511686477685437" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_2-16511686477935436" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_0-16511686478855445" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_5-16511686481607547" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16511686485897553" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-1651168649015754" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16511686492647562" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16511686494227543" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16511686494937856" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16511686501657517" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16511686501897526" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-1651168650202785" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-1651168650202785" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16511686502187657" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16511686502197542" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16511686502347858" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16511686502377517" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16511686502507863" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16511686502664113" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16511686502824118" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-1651255481167254" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16512554811833642" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16512554811852875" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16512554811994097" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_2-1651255481424914" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_9-16512554816314726" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_5-16512554818761458" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-1651255482003001" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16512554822250252" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16512554823695858" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16512554825074532" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16512554827413402" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-1651255482814433" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16512554828451188" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16512554828659723" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16512554828679621" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16512554828976758" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16512554828986802" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16512554829098735" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16512554829178002" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16512554829343317" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16512554829569082" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-1651255483002457" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -675,7 +675,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,7 +734,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1085,11 +1085,11 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1329,11 +1329,11 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1486,14 +1486,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1698,14 +1698,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1922,14 +1922,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,14 +2038,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2310,14 +2310,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2867,15 +2867,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3155,15 +3155,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3294,11 +3294,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3361,15 +3361,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3403,15 +3403,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3424,15 +3424,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3462,11 +3462,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,19 +3504,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3550,15 +3550,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3588,11 +3588,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3777,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
         <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4002,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
         <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -4214,11 +4214,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4252,10 +4252,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4352,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
@@ -4405,7 +4405,7 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
         <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -4603,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4703,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4828,10 +4828,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4878,10 +4878,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4915,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5053,10 +5053,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5065,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
         <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5165,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5240,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -5313,14 +5313,14 @@
         <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5329,10 +5329,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>-0.25</v>
@@ -5354,23 +5354,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5382,20 +5382,20 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5410,17 +5410,17 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5429,10 +5429,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>-0.25</v>
@@ -5454,16 +5454,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -5479,10 +5479,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5491,11 +5491,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5507,10 +5507,10 @@
         <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
         <v>0.25</v>
@@ -5538,14 +5538,14 @@
         <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5554,16 +5554,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>-0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -5582,20 +5582,20 @@
         <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5604,16 +5604,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -5629,16 +5629,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5654,23 +5654,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
         <v>-0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -5704,16 +5704,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5729,23 +5729,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
         <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5754,16 +5754,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -5779,16 +5779,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5804,13 +5804,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
         <v>-0.25</v>
@@ -5829,23 +5829,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5854,16 +5854,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5882,20 +5882,20 @@
         <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E25" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5904,23 +5904,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5941,11 +5941,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5954,16 +5954,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -5979,10 +5979,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>-0.25</v>
@@ -6004,23 +6004,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6029,23 +6029,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6105,16 +6105,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -6130,16 +6130,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -6155,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -6164,7 +6164,7 @@
         <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6183,20 +6183,20 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6205,10 +6205,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>-0.25</v>
@@ -6217,11 +6217,11 @@
         <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -6239,14 +6239,14 @@
         <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6255,16 +6255,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -6280,23 +6280,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
         <v>-0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6308,13 +6308,13 @@
         <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6333,7 +6333,7 @@
         <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>-0.25</v>
@@ -6355,23 +6355,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6383,20 +6383,20 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6405,13 +6405,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
         <v>0.25</v>
@@ -6430,23 +6430,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6455,16 +6455,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6480,10 +6480,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>-0.25</v>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6530,23 +6530,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6558,20 +6558,20 @@
         <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6583,13 +6583,13 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6608,13 +6608,13 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -6633,13 +6633,13 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6655,13 +6655,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
@@ -6683,20 +6683,20 @@
         <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -6714,14 +6714,14 @@
         <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6730,16 +6730,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -6755,23 +6755,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6780,10 +6780,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>-0.25</v>
@@ -6830,16 +6830,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,19 +7357,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7420,11 +7420,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,19 +7483,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7529,15 +7529,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7546,11 +7546,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7588,19 +7588,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7609,19 +7609,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,19 +7672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7693,19 +7693,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7714,11 +7714,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7735,11 +7735,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,17 +7818,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7856,17 +7856,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7875,17 +7875,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7894,17 +7894,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7951,17 +7951,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8027,7 +8027,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -8046,17 +8046,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -8103,7 +8103,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8160,7 +8160,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -8179,17 +8179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -8277,17 +8277,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8394,14 +8394,14 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8410,10 +8410,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8429,10 +8429,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8524,17 +8524,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,10 +8562,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8660,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -8679,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -8698,17 +8698,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8717,17 +8717,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8755,17 +8755,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8774,17 +8774,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8850,17 +8850,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8888,17 +8888,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8907,17 +8907,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8926,17 +8926,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9124,14 +9124,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9223,11 +9223,11 @@
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9236,14 +9236,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -9544,7 +9544,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9611,11 +9611,11 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9659,11 +9659,11 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>

--- a/participants/participant_02/participant_02_conditions.xlsx
+++ b/participants/participant_02/participant_02_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-1651255481167254" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16512554811833642" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16512554811852875" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16512554811994097" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_2-1651255481424914" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_9-16512554816314726" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_5-16512554818761458" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-1651255482003001" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16512554822250252" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16512554823695858" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16512554825074532" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16512554827413402" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-1651255482814433" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16512554828451188" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16512554828659723" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16512554828679621" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16512554828976758" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16512554828986802" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16512554829098735" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16512554829178002" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16512554829343317" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16512554829569082" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-1651255483002457" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16515889111946614" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16515889112132423" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-1651588911215091" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-1651588911229015" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZM_stims-16515889112341201" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MM_stims-16515889112588556" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZM_stims-16515889112598197" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="MM_stims-16515889112746408" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ZM_stims-16515889112757072" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MM_stims-16515889112916434" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ZB-match_6-16515889113613956" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ZB-match_3-16515889114119787" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="ZB-match_8-16515889117666283" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="OB-1651588912072055" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="OB-16515889122547374" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="OB-16515889134065676" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="TB-16515889137811532" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="TB-16515889139825356" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="TB-16515889143044312" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16515889143226066" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16515889143354964" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-1651588914351466" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16515889143822083" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -903,6 +903,1413 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>image_stim</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>corr_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>num_stim</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>match_num</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>corr_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>num_stim</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>match_num</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>corr_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>num_stim</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>match_num</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>corr_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -970,14 +2377,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -986,14 +2393,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1002,14 +2409,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1018,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1034,7 +2441,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1050,7 +2457,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1066,7 +2473,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1082,7 +2489,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1098,14 +2505,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1117,11 +2524,11 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1130,7 +2537,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,14 +2553,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1162,14 +2569,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1178,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1194,7 +2601,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1210,7 +2617,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1226,14 +2633,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1242,14 +2649,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1258,7 +2665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1294,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,14 +2717,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1326,14 +2733,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1342,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1358,14 +2765,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1374,14 +2781,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1390,14 +2797,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1409,11 +2816,11 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1422,7 +2829,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1438,14 +2845,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1454,14 +2861,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1470,7 +2877,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1486,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1502,14 +2909,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1518,7 +2925,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1534,14 +2941,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1550,14 +2957,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,7 +2973,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,7 +2989,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1598,14 +3005,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1614,7 +3021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1650,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,14 +3089,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1698,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1714,14 +3121,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1730,7 +3137,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1746,14 +3153,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1762,14 +3169,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1778,14 +3185,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1794,7 +3201,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1810,14 +3217,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1826,14 +3233,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1842,14 +3249,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1858,7 +3265,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1874,14 +3281,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1890,14 +3297,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1906,7 +3313,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1922,14 +3329,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1938,7 +3345,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1954,7 +3361,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1970,7 +3377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2006,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2054,7 +3461,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2070,7 +3477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2086,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2102,14 +3509,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2118,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2134,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2150,7 +3557,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2166,14 +3573,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2182,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2198,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,7 +3621,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2230,14 +3637,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2246,14 +3653,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2262,14 +3669,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2294,7 +3701,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -2318,582 +3725,6 @@
       <c r="D21" t="inlineStr">
         <is>
           <t>right</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>image_stim</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>corr_key</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>image_stim</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>corr_key</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>image_stim</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>corr_key</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>image_stim</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>corr_key</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
         </is>
       </c>
     </row>
@@ -2908,7 +3739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2919,7 +3750,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>image_stim</t>
+          <t>num_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2937,10 +3768,8 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
-        </is>
+      <c r="B2" t="n">
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2955,10 +3784,8 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
-        </is>
+      <c r="B3" t="n">
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2973,10 +3800,8 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2991,17 +3816,15 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3009,10 +3832,8 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
-        </is>
+      <c r="B6" t="n">
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3027,15 +3848,237 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
-        </is>
+      <c r="B7" t="n">
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -3052,7 +4095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3063,7 +4106,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>image_stim</t>
+          <t>num_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3081,17 +4124,15 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
-        </is>
+      <c r="B2" t="n">
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3099,17 +4140,15 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3117,17 +4156,15 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
-        </is>
+      <c r="B4" t="n">
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3135,10 +4172,8 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -3153,10 +4188,8 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
-        </is>
+      <c r="B6" t="n">
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3171,15 +4204,237 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
-        </is>
+      <c r="B7" t="n">
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -3231,11 +4486,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,11 +4507,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3273,19 +4528,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3294,11 +4549,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3315,19 +4570,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3340,15 +4595,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3357,11 +4612,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3378,19 +4633,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3399,19 +4654,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3420,11 +4675,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3441,11 +4696,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,19 +4717,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3483,19 +4738,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3504,19 +4759,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3525,19 +4780,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3546,19 +4801,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3567,19 +4822,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3588,11 +4843,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,11 +4864,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,19 +4885,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3702,10 +4957,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +4969,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3730,7 +4985,7 @@
         <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3739,11 +4994,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3752,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -3764,11 +5019,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3777,7 +5032,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -3789,11 +5044,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3802,10 +5057,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +5069,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3827,7 +5082,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -3839,11 +5094,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3855,7 +5110,7 @@
         <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3880,7 +5135,7 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3927,10 +5182,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3939,11 +5194,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3952,10 +5207,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3977,10 +5232,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3989,11 +5244,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4002,10 +5257,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4014,11 +5269,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4030,7 +5285,7 @@
         <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +5294,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4052,10 +5307,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4064,11 +5319,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4077,7 +5332,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
@@ -4089,11 +5344,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4105,7 +5360,7 @@
         <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4127,10 +5382,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4139,11 +5394,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4152,7 +5407,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -4177,10 +5432,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4189,11 +5444,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4202,7 +5457,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -4239,11 +5494,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4252,10 +5507,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4264,11 +5519,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4280,7 +5535,7 @@
         <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4289,11 +5544,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4302,10 +5557,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +5569,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4327,7 +5582,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -4364,11 +5619,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4377,10 +5632,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4389,11 +5644,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4405,7 +5660,7 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +5669,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4427,10 +5682,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4439,11 +5694,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4503,10 +5758,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4531,7 +5786,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4540,11 +5795,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4553,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -4578,10 +5833,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4590,11 +5845,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4628,7 +5883,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -4653,10 +5908,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +5920,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4678,7 +5933,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4690,11 +5945,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4728,7 +5983,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -4756,7 +6011,7 @@
         <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4778,10 +6033,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +6045,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4803,10 +6058,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4831,7 +6086,7 @@
         <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4865,11 +6120,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4878,10 +6133,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4903,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -4928,10 +6183,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4940,11 +6195,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4953,10 +6208,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4965,11 +6220,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4978,10 +6233,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +6245,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5003,10 +6258,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5028,10 +6283,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +6295,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5053,7 +6308,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
@@ -5081,7 +6336,7 @@
         <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5103,7 +6358,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
@@ -5128,10 +6383,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +6395,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5156,7 +6411,7 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5178,10 +6433,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5203,7 +6458,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -5215,11 +6470,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5231,7 +6486,7 @@
         <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5240,11 +6495,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5307,13 +6562,13 @@
         <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5332,7 +6587,7 @@
         <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>-0.25</v>
@@ -5354,16 +6609,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5379,23 +6634,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5404,23 +6659,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
         <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5432,10 +6687,10 @@
         <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
         <v>-0.25</v>
@@ -5454,10 +6709,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5482,7 +6737,7 @@
         <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5491,11 +6746,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5510,17 +6765,17 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
         <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5529,23 +6784,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5579,7 +6834,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -5610,10 +6865,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -5629,13 +6884,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
         <v>-0.25</v>
@@ -5654,23 +6909,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5685,17 +6940,17 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5710,10 +6965,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5732,10 +6987,10 @@
         <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
         <v>0.25</v>
@@ -5757,7 +7012,7 @@
         <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>-0.25</v>
@@ -5788,14 +7043,14 @@
         <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5807,20 +7062,20 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5829,23 +7084,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5857,20 +7112,20 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.25</v>
       </c>
-      <c r="E24" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5879,13 +7134,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
         <v>-0.25</v>
@@ -5904,16 +7159,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -5929,7 +7184,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -5954,10 +7209,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
@@ -5966,11 +7221,11 @@
         <v>-0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5979,10 +7234,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>-0.25</v>
@@ -5991,11 +7246,11 @@
         <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6004,23 +7259,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6029,10 +7284,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0.25</v>
@@ -6041,11 +7296,11 @@
         <v>0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6105,16 +7360,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -6133,13 +7388,13 @@
         <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -6155,23 +7410,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
         <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6180,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -6205,10 +7460,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>-0.25</v>
@@ -6230,23 +7485,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E7" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6261,10 +7516,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -6280,23 +7535,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.25</v>
       </c>
-      <c r="E9" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6305,16 +7560,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6330,10 +7585,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>-0.25</v>
@@ -6355,23 +7610,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="n">
         <v>0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6380,10 +7635,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>-0.25</v>
@@ -6405,16 +7660,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6430,7 +7685,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
@@ -6461,10 +7716,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6480,23 +7735,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6505,23 +7760,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
         <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6533,13 +7788,13 @@
         <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -6555,23 +7810,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E20" t="n">
         <v>-0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6580,23 +7835,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6608,20 +7863,20 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6630,7 +7885,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -6639,14 +7894,14 @@
         <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6655,23 +7910,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6683,13 +7938,13 @@
         <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -6708,7 +7963,7 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>-0.25</v>
@@ -6717,11 +7972,11 @@
         <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6733,13 +7988,13 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.25</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -6758,10 +8013,10 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="n">
         <v>0.25</v>
@@ -6783,20 +8038,20 @@
         <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E29" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6805,10 +8060,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0.25</v>
@@ -6817,11 +8072,11 @@
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6833,13 +8088,13 @@
         <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6896,11 +8151,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +8172,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +8193,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +8214,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +8235,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +8256,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +8277,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +8298,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +8319,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7089,7 +8344,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +8361,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +8382,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +8403,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +8424,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +8445,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +8466,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +8487,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +8508,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +8529,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +8550,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +8612,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,19 +8633,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7403,15 +8658,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7420,19 +8675,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7441,11 +8696,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7466,15 +8721,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7483,19 +8738,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7508,15 +8763,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7525,19 +8780,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7550,7 +8805,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7571,7 +8826,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_14.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7588,11 +8843,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7613,15 +8868,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7630,11 +8885,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,11 +8906,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,11 +8927,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7693,11 +8948,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,11 +8969,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_5.jpeg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7735,19 +8990,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7756,19 +9011,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7783,7 +9038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7794,20 +9049,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_num</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -7817,16 +9067,15 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>9</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7836,16 +9085,15 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>6</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7855,16 +9103,15 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>8</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7874,18 +9121,17 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>2</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7893,16 +9139,15 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7912,282 +9157,15 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>4</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8204,7 +9182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8215,20 +9193,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_num</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -8238,16 +9211,15 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>9</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8257,16 +9229,15 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>9</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8276,18 +9247,17 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>9</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8295,16 +9265,15 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8314,16 +9283,15 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8333,284 +9301,17 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8625,7 +9326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8636,20 +9337,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_num</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -8659,16 +9355,15 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>9</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8678,16 +9373,15 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8697,16 +9391,15 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8716,18 +9409,17 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>5</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8735,16 +9427,15 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8754,284 +9445,17 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>2</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9046,7 +9470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9057,7 +9481,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -9075,15 +9499,17 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>4</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9091,8 +9517,10 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>4</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -9107,8 +9535,10 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>4</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9123,15 +9553,17 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9139,8 +9571,10 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9155,237 +9589,15 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -9402,7 +9614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9413,7 +9625,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -9431,8 +9643,10 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>8</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9447,15 +9661,17 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>8</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9463,8 +9679,10 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9479,15 +9697,17 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9495,8 +9715,10 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9511,8 +9733,10 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9520,230 +9744,6 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>right</t>
         </is>
       </c>
     </row>
